--- a/New_Digital_Import_Sample_Pro.xlsx
+++ b/New_Digital_Import_Sample_Pro.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>Type :</t>
   </si>
@@ -252,6 +252,69 @@
   </si>
   <si>
     <t>Sanity 2025-07-10_10-49-07</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-11_15-24-02</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-14_10-42-36</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-15_11-08-08</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-17_10-48-57</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-17_10-50-27</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-18_11-07-37</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-21_10-29-03</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-22_10-45-21</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-23_11-06-35</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-23_15-42-35</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-24_10-56-22</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-25_10-57-11</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-28_10-18-20</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-29_10-13-22</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-30_10-22-15</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-31_10-21-19</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-31_16-55-38</t>
+  </si>
+  <si>
+    <t>Sanity 2025-07-31_16-57-30</t>
+  </si>
+  <si>
+    <t>Sanity 2025-08-01_10-17-19</t>
+  </si>
+  <si>
+    <t>Sanity 2025-08-25_10-49-59</t>
+  </si>
+  <si>
+    <t>Sanity 2025-08-26_10-30-17</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
